--- a/tools/OTA/OTA 升级简要说明.xlsx
+++ b/tools/OTA/OTA 升级简要说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25968" windowHeight="13500"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>.bin文件起始储存地址，
-keil例程默认将output .bin文件,下载到0x18008000</t>
+keil例程默认将output .bin文件,下载到0x18004000</t>
   </si>
   <si>
     <t>从机获取主机发送过来的OTA数据，存储到ota_data_buf[]里面</t>
@@ -203,6 +203,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.OTA升级完成后，以新的</t>
     </r>
     <r>
@@ -318,6 +325,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">将数据（升级代码）写到 Flash </t>
     </r>
     <r>
@@ -2295,8 +2309,8 @@
   <sheetPr/>
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AM43" sqref="AM43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
